--- a/test.xlsx
+++ b/test.xlsx
@@ -1,37 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +62,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +110,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +151,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +239,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +295,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +313,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +321,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +353,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +366,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,49 +389,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Conclusion</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Findings</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0    Rectosigmoid colon cancer\n\n    Polypoid, sol...
-Name: Conclusion, dtype: object</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="96">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-    	Prostate cancer is a common type of cancer that affects the prostate gland, a small walnut-shaped organ in men that is responsible for producing seminal fluid and regulating male sexual function. Prostate cancer occurs when abnormal cells multiply and grow out of control in the prostate. These cells can spread to other parts of the body, most commonly the bones, through a process called metastasis. 
-    The diagnosis of prostate cancer is typically made through a combination of physical examination, imaging tests, and blood tests. A digital rectal examination (DRE) is often performed to assess the size, shape, and consistency of the prostate. Imaging tests such as ultrasound, CT scan, or MRI can help to visualize the prostate and detect any abnormalities. Blood tests such as PSA (prostate-specific antigen) levels can provide important information about the presence and severity of prostate cancer.
-    Treatment options for prostate cancer depend on various factors such as the stage and grade of the cancer, the patient's age and overall health, and personal preferences. For early-stage prostate cancer, active surveillance, watchful waiting, or conservative management may be recommended. For more advanced stages, treatment options include surgery, radiation therapy, hormone therapy, or chemotherapy.
-    In general, prostate cancer is a serious but treatable condition, and the prognosis and treatment plan are typically individualized based on the specific circumstances and needs of each patient.</t>
-        </is>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>